--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.08990733333334</v>
+        <v>40.70860766666667</v>
       </c>
       <c r="H2">
-        <v>108.269722</v>
+        <v>122.125823</v>
       </c>
       <c r="I2">
-        <v>0.7931472865473056</v>
+        <v>0.7675446161487006</v>
       </c>
       <c r="J2">
-        <v>0.7931472865473055</v>
+        <v>0.7675446161487006</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.24745566666667</v>
+        <v>30.15868566666667</v>
       </c>
       <c r="N2">
-        <v>102.742367</v>
+        <v>90.47605700000001</v>
       </c>
       <c r="O2">
-        <v>0.8258356447932999</v>
+        <v>0.7896891929623476</v>
       </c>
       <c r="P2">
-        <v>0.8258356447932999</v>
+        <v>0.7896891929623476</v>
       </c>
       <c r="Q2">
-        <v>1235.987501412442</v>
+        <v>1227.718102546657</v>
       </c>
       <c r="R2">
-        <v>11123.88751271197</v>
+        <v>11049.46292291991</v>
       </c>
       <c r="S2">
-        <v>0.6550093008018503</v>
+        <v>0.6061216884890623</v>
       </c>
       <c r="T2">
-        <v>0.6550093008018502</v>
+        <v>0.6061216884890623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.08990733333334</v>
+        <v>40.70860766666667</v>
       </c>
       <c r="H3">
-        <v>108.269722</v>
+        <v>122.125823</v>
       </c>
       <c r="I3">
-        <v>0.7931472865473056</v>
+        <v>0.7675446161487006</v>
       </c>
       <c r="J3">
-        <v>0.7931472865473055</v>
+        <v>0.7675446161487006</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.171009</v>
       </c>
       <c r="O3">
-        <v>0.03352626581937378</v>
+        <v>0.03640521968202801</v>
       </c>
       <c r="P3">
-        <v>0.03352626581937378</v>
+        <v>0.03640521968202801</v>
       </c>
       <c r="Q3">
-        <v>50.17710943216644</v>
+        <v>56.59865631837856</v>
       </c>
       <c r="R3">
-        <v>451.593984889498</v>
+        <v>509.387906865407</v>
       </c>
       <c r="S3">
-        <v>0.02659126676269999</v>
+        <v>0.02794263036665131</v>
       </c>
       <c r="T3">
-        <v>0.02659126676269999</v>
+        <v>0.02794263036665131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.08990733333334</v>
+        <v>40.70860766666667</v>
       </c>
       <c r="H4">
-        <v>108.269722</v>
+        <v>122.125823</v>
       </c>
       <c r="I4">
-        <v>0.7931472865473056</v>
+        <v>0.7675446161487006</v>
       </c>
       <c r="J4">
-        <v>0.7931472865473055</v>
+        <v>0.7675446161487006</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.025246</v>
+        <v>0.1212496666666667</v>
       </c>
       <c r="N4">
-        <v>0.075738</v>
+        <v>0.363749</v>
       </c>
       <c r="O4">
-        <v>0.0006087765144183893</v>
+        <v>0.003174858230734579</v>
       </c>
       <c r="P4">
-        <v>0.0006087765144183893</v>
+        <v>0.003174858230734579</v>
       </c>
       <c r="Q4">
-        <v>0.9111258005373335</v>
+        <v>4.935905110047445</v>
       </c>
       <c r="R4">
-        <v>8.200132204836001</v>
+        <v>44.423145990427</v>
       </c>
       <c r="S4">
-        <v>0.0004828494405246721</v>
+        <v>0.002436845342035716</v>
       </c>
       <c r="T4">
-        <v>0.0004828494405246721</v>
+        <v>0.002436845342035716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.08990733333334</v>
+        <v>40.70860766666667</v>
       </c>
       <c r="H5">
-        <v>108.269722</v>
+        <v>122.125823</v>
       </c>
       <c r="I5">
-        <v>0.7931472865473056</v>
+        <v>0.7675446161487006</v>
       </c>
       <c r="J5">
-        <v>0.7931472865473055</v>
+        <v>0.7675446161487006</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.796320999999999</v>
+        <v>6.270043</v>
       </c>
       <c r="N5">
-        <v>17.388963</v>
+        <v>18.810129</v>
       </c>
       <c r="O5">
-        <v>0.1397712150372381</v>
+        <v>0.1641777513527988</v>
       </c>
       <c r="P5">
-        <v>0.1397712150372381</v>
+        <v>0.1641777513527988</v>
       </c>
       <c r="Q5">
-        <v>209.188687764254</v>
+        <v>255.2447205401297</v>
       </c>
       <c r="R5">
-        <v>1882.698189878286</v>
+        <v>2297.202484861167</v>
       </c>
       <c r="S5">
-        <v>0.1108591599442053</v>
+        <v>0.1260137491422408</v>
       </c>
       <c r="T5">
-        <v>0.1108591599442053</v>
+        <v>0.1260137491422408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.08990733333334</v>
+        <v>40.70860766666667</v>
       </c>
       <c r="H6">
-        <v>108.269722</v>
+        <v>122.125823</v>
       </c>
       <c r="I6">
-        <v>0.7931472865473056</v>
+        <v>0.7675446161487006</v>
       </c>
       <c r="J6">
-        <v>0.7931472865473055</v>
+        <v>0.7675446161487006</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01070333333333333</v>
+        <v>0.250262</v>
       </c>
       <c r="N6">
-        <v>0.03211</v>
+        <v>0.750786</v>
       </c>
       <c r="O6">
-        <v>0.0002580978356700003</v>
+        <v>0.006552977772090898</v>
       </c>
       <c r="P6">
-        <v>0.0002580978356700003</v>
+        <v>0.006552977772090898</v>
       </c>
       <c r="Q6">
-        <v>0.3862823081577778</v>
+        <v>10.18781757187533</v>
       </c>
       <c r="R6">
-        <v>3.47654077342</v>
+        <v>91.690358146878</v>
       </c>
       <c r="S6">
-        <v>0.0002047095980253931</v>
+        <v>0.005029702808710476</v>
       </c>
       <c r="T6">
-        <v>0.0002047095980253931</v>
+        <v>0.005029702808710476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.51975</v>
       </c>
       <c r="I7">
-        <v>0.01113317339754754</v>
+        <v>0.009551427386425783</v>
       </c>
       <c r="J7">
-        <v>0.01113317339754754</v>
+        <v>0.009551427386425783</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.24745566666667</v>
+        <v>30.15868566666667</v>
       </c>
       <c r="N7">
-        <v>102.742367</v>
+        <v>90.47605700000001</v>
       </c>
       <c r="O7">
-        <v>0.8258356447932999</v>
+        <v>0.7896891929623476</v>
       </c>
       <c r="P7">
-        <v>0.8258356447932999</v>
+        <v>0.7896891929623476</v>
       </c>
       <c r="Q7">
-        <v>17.34919024980556</v>
+        <v>15.27788751397223</v>
       </c>
       <c r="R7">
-        <v>156.14271224825</v>
+        <v>137.50098762575</v>
       </c>
       <c r="S7">
-        <v>0.009194171431359286</v>
+        <v>0.007542658984425042</v>
       </c>
       <c r="T7">
-        <v>0.009194171431359286</v>
+        <v>0.007542658984425042</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.51975</v>
       </c>
       <c r="I8">
-        <v>0.01113317339754754</v>
+        <v>0.009551427386425783</v>
       </c>
       <c r="J8">
-        <v>0.01113317339754754</v>
+        <v>0.009551427386425783</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.171009</v>
       </c>
       <c r="O8">
-        <v>0.03352626581937378</v>
+        <v>0.03640521968202801</v>
       </c>
       <c r="P8">
-        <v>0.03352626581937378</v>
+        <v>0.03640521968202801</v>
       </c>
       <c r="Q8">
         <v>0.7043212141944445</v>
@@ -948,10 +948,10 @@
         <v>6.338890927750001</v>
       </c>
       <c r="S8">
-        <v>0.0003732537307393595</v>
+        <v>0.0003477218122797692</v>
       </c>
       <c r="T8">
-        <v>0.0003732537307393595</v>
+        <v>0.0003477218122797693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>1.51975</v>
       </c>
       <c r="I9">
-        <v>0.01113317339754754</v>
+        <v>0.009551427386425783</v>
       </c>
       <c r="J9">
-        <v>0.01113317339754754</v>
+        <v>0.009551427386425783</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.025246</v>
+        <v>0.1212496666666667</v>
       </c>
       <c r="N9">
-        <v>0.075738</v>
+        <v>0.363749</v>
       </c>
       <c r="O9">
-        <v>0.0006087765144183893</v>
+        <v>0.003174858230734579</v>
       </c>
       <c r="P9">
-        <v>0.0006087765144183893</v>
+        <v>0.003174858230734579</v>
       </c>
       <c r="Q9">
-        <v>0.01278920283333334</v>
+        <v>0.06142306030555555</v>
       </c>
       <c r="R9">
-        <v>0.1151028255</v>
+        <v>0.55280754275</v>
       </c>
       <c r="S9">
-        <v>6.777614495374528E-06</v>
+        <v>3.032442785305757E-05</v>
       </c>
       <c r="T9">
-        <v>6.777614495374528E-06</v>
+        <v>3.032442785305757E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.51975</v>
       </c>
       <c r="I10">
-        <v>0.01113317339754754</v>
+        <v>0.009551427386425783</v>
       </c>
       <c r="J10">
-        <v>0.01113317339754754</v>
+        <v>0.009551427386425783</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.796320999999999</v>
+        <v>6.270043</v>
       </c>
       <c r="N10">
-        <v>17.388963</v>
+        <v>18.810129</v>
       </c>
       <c r="O10">
-        <v>0.1397712150372381</v>
+        <v>0.1641777513527988</v>
       </c>
       <c r="P10">
-        <v>0.1397712150372381</v>
+        <v>0.1641777513527988</v>
       </c>
       <c r="Q10">
-        <v>2.93631961325</v>
+        <v>3.176299283083334</v>
       </c>
       <c r="R10">
-        <v>26.42687651925</v>
+        <v>28.58669354775</v>
       </c>
       <c r="S10">
-        <v>0.001556097172995475</v>
+        <v>0.001568131870512925</v>
       </c>
       <c r="T10">
-        <v>0.001556097172995475</v>
+        <v>0.001568131870512925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1.51975</v>
       </c>
       <c r="I11">
-        <v>0.01113317339754754</v>
+        <v>0.009551427386425783</v>
       </c>
       <c r="J11">
-        <v>0.01113317339754754</v>
+        <v>0.009551427386425783</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.01070333333333333</v>
+        <v>0.250262</v>
       </c>
       <c r="N11">
-        <v>0.03211</v>
+        <v>0.750786</v>
       </c>
       <c r="O11">
-        <v>0.0002580978356700003</v>
+        <v>0.006552977772090898</v>
       </c>
       <c r="P11">
-        <v>0.0002580978356700003</v>
+        <v>0.006552977772090898</v>
       </c>
       <c r="Q11">
-        <v>0.005422130277777779</v>
+        <v>0.1267785581666667</v>
       </c>
       <c r="R11">
-        <v>0.0487991725</v>
+        <v>1.1410070235</v>
       </c>
       <c r="S11">
-        <v>2.873447958045844E-06</v>
+        <v>6.259029135498842E-05</v>
       </c>
       <c r="T11">
-        <v>2.873447958045844E-06</v>
+        <v>6.259029135498842E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.243179</v>
+        <v>0.280082</v>
       </c>
       <c r="H12">
-        <v>0.729537</v>
+        <v>0.840246</v>
       </c>
       <c r="I12">
-        <v>0.005344340793503299</v>
+        <v>0.00528083477922995</v>
       </c>
       <c r="J12">
-        <v>0.005344340793503299</v>
+        <v>0.005280834779229951</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.24745566666667</v>
+        <v>30.15868566666667</v>
       </c>
       <c r="N12">
-        <v>102.742367</v>
+        <v>90.47605700000001</v>
       </c>
       <c r="O12">
-        <v>0.8258356447932999</v>
+        <v>0.7896891929623476</v>
       </c>
       <c r="P12">
-        <v>0.8258356447932999</v>
+        <v>0.7896891929623476</v>
       </c>
       <c r="Q12">
-        <v>8.328262021564333</v>
+        <v>8.446904998891334</v>
       </c>
       <c r="R12">
-        <v>74.95435819407901</v>
+        <v>76.02214499002201</v>
       </c>
       <c r="S12">
-        <v>0.004413547125197933</v>
+        <v>0.004170218154977597</v>
       </c>
       <c r="T12">
-        <v>0.004413547125197933</v>
+        <v>0.004170218154977597</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.243179</v>
+        <v>0.280082</v>
       </c>
       <c r="H13">
-        <v>0.729537</v>
+        <v>0.840246</v>
       </c>
       <c r="I13">
-        <v>0.005344340793503299</v>
+        <v>0.00528083477922995</v>
       </c>
       <c r="J13">
-        <v>0.005344340793503299</v>
+        <v>0.005280834779229951</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.171009</v>
       </c>
       <c r="O13">
-        <v>0.03352626581937378</v>
+        <v>0.03640521968202801</v>
       </c>
       <c r="P13">
-        <v>0.03352626581937378</v>
+        <v>0.03640521968202801</v>
       </c>
       <c r="Q13">
-        <v>0.3381005992036666</v>
+        <v>0.3894081809126666</v>
       </c>
       <c r="R13">
-        <v>3.042905392833</v>
+        <v>3.504673628214</v>
       </c>
       <c r="S13">
-        <v>0.0001791757900723146</v>
+        <v>0.0001922499502423602</v>
       </c>
       <c r="T13">
-        <v>0.0001791757900723146</v>
+        <v>0.0001922499502423603</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.243179</v>
+        <v>0.280082</v>
       </c>
       <c r="H14">
-        <v>0.729537</v>
+        <v>0.840246</v>
       </c>
       <c r="I14">
-        <v>0.005344340793503299</v>
+        <v>0.00528083477922995</v>
       </c>
       <c r="J14">
-        <v>0.005344340793503299</v>
+        <v>0.005280834779229951</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.025246</v>
+        <v>0.1212496666666667</v>
       </c>
       <c r="N14">
-        <v>0.075738</v>
+        <v>0.363749</v>
       </c>
       <c r="O14">
-        <v>0.0006087765144183893</v>
+        <v>0.003174858230734579</v>
       </c>
       <c r="P14">
-        <v>0.0006087765144183893</v>
+        <v>0.003174858230734579</v>
       </c>
       <c r="Q14">
-        <v>0.006139297034</v>
+        <v>0.03395984913933333</v>
       </c>
       <c r="R14">
-        <v>0.055253673306</v>
+        <v>0.305638642254</v>
       </c>
       <c r="S14">
-        <v>3.253509160132947E-06</v>
+        <v>1.676590176398763E-05</v>
       </c>
       <c r="T14">
-        <v>3.253509160132947E-06</v>
+        <v>1.676590176398764E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.243179</v>
+        <v>0.280082</v>
       </c>
       <c r="H15">
-        <v>0.729537</v>
+        <v>0.840246</v>
       </c>
       <c r="I15">
-        <v>0.005344340793503299</v>
+        <v>0.00528083477922995</v>
       </c>
       <c r="J15">
-        <v>0.005344340793503299</v>
+        <v>0.005280834779229951</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.796320999999999</v>
+        <v>6.270043</v>
       </c>
       <c r="N15">
-        <v>17.388963</v>
+        <v>18.810129</v>
       </c>
       <c r="O15">
-        <v>0.1397712150372381</v>
+        <v>0.1641777513527988</v>
       </c>
       <c r="P15">
-        <v>0.1397712150372381</v>
+        <v>0.1641777513527988</v>
       </c>
       <c r="Q15">
-        <v>1.409543544459</v>
+        <v>1.756126183526</v>
       </c>
       <c r="R15">
-        <v>12.685891900131</v>
+        <v>15.805135651734</v>
       </c>
       <c r="S15">
-        <v>0.000746985006281033</v>
+        <v>0.000866995579319627</v>
       </c>
       <c r="T15">
-        <v>0.000746985006281033</v>
+        <v>0.000866995579319627</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.243179</v>
+        <v>0.280082</v>
       </c>
       <c r="H16">
-        <v>0.729537</v>
+        <v>0.840246</v>
       </c>
       <c r="I16">
-        <v>0.005344340793503299</v>
+        <v>0.00528083477922995</v>
       </c>
       <c r="J16">
-        <v>0.005344340793503299</v>
+        <v>0.005280834779229951</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.01070333333333333</v>
+        <v>0.250262</v>
       </c>
       <c r="N16">
-        <v>0.03211</v>
+        <v>0.750786</v>
       </c>
       <c r="O16">
-        <v>0.0002580978356700003</v>
+        <v>0.006552977772090898</v>
       </c>
       <c r="P16">
-        <v>0.0002580978356700003</v>
+        <v>0.006552977772090898</v>
       </c>
       <c r="Q16">
-        <v>0.002602825896666667</v>
+        <v>0.07009388148399999</v>
       </c>
       <c r="R16">
-        <v>0.02342543307</v>
+        <v>0.630844933356</v>
       </c>
       <c r="S16">
-        <v>1.379362791886093E-06</v>
+        <v>3.460519292637841E-05</v>
       </c>
       <c r="T16">
-        <v>1.379362791886093E-06</v>
+        <v>3.460519292637842E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.256959</v>
+        <v>11.37702566666667</v>
       </c>
       <c r="H17">
-        <v>24.770877</v>
+        <v>34.131077</v>
       </c>
       <c r="I17">
-        <v>0.1814630490872329</v>
+        <v>0.2145092966514276</v>
       </c>
       <c r="J17">
-        <v>0.1814630490872329</v>
+        <v>0.2145092966514276</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.24745566666667</v>
+        <v>30.15868566666667</v>
       </c>
       <c r="N17">
-        <v>102.742367</v>
+        <v>90.47605700000001</v>
       </c>
       <c r="O17">
-        <v>0.8258356447932999</v>
+        <v>0.7896891929623476</v>
       </c>
       <c r="P17">
-        <v>0.8258356447932999</v>
+        <v>0.7896891929623476</v>
       </c>
       <c r="Q17">
-        <v>282.7798372939843</v>
+        <v>343.1161409025988</v>
       </c>
       <c r="R17">
-        <v>2545.018535645859</v>
+        <v>3088.045268123389</v>
       </c>
       <c r="S17">
-        <v>0.1498586541491132</v>
+        <v>0.1693956733555867</v>
       </c>
       <c r="T17">
-        <v>0.1498586541491132</v>
+        <v>0.1693956733555867</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.256959</v>
+        <v>11.37702566666667</v>
       </c>
       <c r="H18">
-        <v>24.770877</v>
+        <v>34.131077</v>
       </c>
       <c r="I18">
-        <v>0.1814630490872329</v>
+        <v>0.2145092966514276</v>
       </c>
       <c r="J18">
-        <v>0.1814630490872329</v>
+        <v>0.2145092966514276</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.171009</v>
       </c>
       <c r="O18">
-        <v>0.03352626581937378</v>
+        <v>0.03640521968202801</v>
       </c>
       <c r="P18">
-        <v>0.03352626581937378</v>
+        <v>0.03640521968202801</v>
       </c>
       <c r="Q18">
-        <v>11.47995010054367</v>
+        <v>15.81789214963255</v>
       </c>
       <c r="R18">
-        <v>103.319550904893</v>
+        <v>142.361029346693</v>
       </c>
       <c r="S18">
-        <v>0.006083778420092642</v>
+        <v>0.007809258068432536</v>
       </c>
       <c r="T18">
-        <v>0.006083778420092642</v>
+        <v>0.007809258068432538</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.256959</v>
+        <v>11.37702566666667</v>
       </c>
       <c r="H19">
-        <v>24.770877</v>
+        <v>34.131077</v>
       </c>
       <c r="I19">
-        <v>0.1814630490872329</v>
+        <v>0.2145092966514276</v>
       </c>
       <c r="J19">
-        <v>0.1814630490872329</v>
+        <v>0.2145092966514276</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.025246</v>
+        <v>0.1212496666666667</v>
       </c>
       <c r="N19">
-        <v>0.075738</v>
+        <v>0.363749</v>
       </c>
       <c r="O19">
-        <v>0.0006087765144183893</v>
+        <v>0.003174858230734579</v>
       </c>
       <c r="P19">
-        <v>0.0006087765144183893</v>
+        <v>0.003174858230734579</v>
       </c>
       <c r="Q19">
-        <v>0.208455186914</v>
+        <v>1.379460569741444</v>
       </c>
       <c r="R19">
-        <v>1.876096682226</v>
+        <v>12.415145127673</v>
       </c>
       <c r="S19">
-        <v>0.0001104704425190587</v>
+        <v>0.0006810366060428705</v>
       </c>
       <c r="T19">
-        <v>0.0001104704425190587</v>
+        <v>0.0006810366060428705</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.256959</v>
+        <v>11.37702566666667</v>
       </c>
       <c r="H20">
-        <v>24.770877</v>
+        <v>34.131077</v>
       </c>
       <c r="I20">
-        <v>0.1814630490872329</v>
+        <v>0.2145092966514276</v>
       </c>
       <c r="J20">
-        <v>0.1814630490872329</v>
+        <v>0.2145092966514276</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.796320999999999</v>
+        <v>6.270043</v>
       </c>
       <c r="N20">
-        <v>17.388963</v>
+        <v>18.810129</v>
       </c>
       <c r="O20">
-        <v>0.1397712150372381</v>
+        <v>0.1641777513527988</v>
       </c>
       <c r="P20">
-        <v>0.1397712150372381</v>
+        <v>0.1641777513527988</v>
       </c>
       <c r="Q20">
-        <v>47.85998484783899</v>
+        <v>71.33444014210367</v>
       </c>
       <c r="R20">
-        <v>430.739863630551</v>
+        <v>642.0099612789329</v>
       </c>
       <c r="S20">
-        <v>0.02536331085528451</v>
+        <v>0.03521765396850184</v>
       </c>
       <c r="T20">
-        <v>0.02536331085528451</v>
+        <v>0.03521765396850183</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.256959</v>
+        <v>11.37702566666667</v>
       </c>
       <c r="H21">
-        <v>24.770877</v>
+        <v>34.131077</v>
       </c>
       <c r="I21">
-        <v>0.1814630490872329</v>
+        <v>0.2145092966514276</v>
       </c>
       <c r="J21">
-        <v>0.1814630490872329</v>
+        <v>0.2145092966514276</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.01070333333333333</v>
+        <v>0.250262</v>
       </c>
       <c r="N21">
-        <v>0.03211</v>
+        <v>0.750786</v>
       </c>
       <c r="O21">
-        <v>0.0002580978356700003</v>
+        <v>0.006552977772090898</v>
       </c>
       <c r="P21">
-        <v>0.0002580978356700003</v>
+        <v>0.006552977772090898</v>
       </c>
       <c r="Q21">
-        <v>0.08837698449666667</v>
+        <v>2.847237197391333</v>
       </c>
       <c r="R21">
-        <v>0.79539286047</v>
+        <v>25.625134776522</v>
       </c>
       <c r="S21">
-        <v>4.683522022349383E-05</v>
+        <v>0.001405674652863657</v>
       </c>
       <c r="T21">
-        <v>4.683522022349383E-05</v>
+        <v>0.001405674652863657</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4055220000000001</v>
+        <v>0.1651493333333333</v>
       </c>
       <c r="H22">
-        <v>1.216566</v>
+        <v>0.495448</v>
       </c>
       <c r="I22">
-        <v>0.008912150174410806</v>
+        <v>0.003113825034216075</v>
       </c>
       <c r="J22">
-        <v>0.008912150174410806</v>
+        <v>0.003113825034216075</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>34.24745566666667</v>
+        <v>30.15868566666667</v>
       </c>
       <c r="N22">
-        <v>102.742367</v>
+        <v>90.47605700000001</v>
       </c>
       <c r="O22">
-        <v>0.8258356447932999</v>
+        <v>0.7896891929623476</v>
       </c>
       <c r="P22">
-        <v>0.8258356447932999</v>
+        <v>0.7896891929623476</v>
       </c>
       <c r="Q22">
-        <v>13.888096716858</v>
+        <v>4.980686832059557</v>
       </c>
       <c r="R22">
-        <v>124.992870451722</v>
+        <v>44.82618148853601</v>
       </c>
       <c r="S22">
-        <v>0.007359971285779267</v>
+        <v>0.002458953978296047</v>
       </c>
       <c r="T22">
-        <v>0.007359971285779267</v>
+        <v>0.002458953978296047</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4055220000000001</v>
+        <v>0.1651493333333333</v>
       </c>
       <c r="H23">
-        <v>1.216566</v>
+        <v>0.495448</v>
       </c>
       <c r="I23">
-        <v>0.008912150174410806</v>
+        <v>0.003113825034216075</v>
       </c>
       <c r="J23">
-        <v>0.008912150174410806</v>
+        <v>0.003113825034216075</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>4.171009</v>
       </c>
       <c r="O23">
-        <v>0.03352626581937378</v>
+        <v>0.03640521968202801</v>
       </c>
       <c r="P23">
-        <v>0.03352626581937378</v>
+        <v>0.03640521968202801</v>
       </c>
       <c r="Q23">
-        <v>0.5638119705660001</v>
+        <v>0.2296131185591111</v>
       </c>
       <c r="R23">
-        <v>5.074307735094001</v>
+        <v>2.066518067032</v>
       </c>
       <c r="S23">
-        <v>0.000298791115769475</v>
+        <v>0.0001133594844220346</v>
       </c>
       <c r="T23">
-        <v>0.000298791115769475</v>
+        <v>0.0001133594844220346</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4055220000000001</v>
+        <v>0.1651493333333333</v>
       </c>
       <c r="H24">
-        <v>1.216566</v>
+        <v>0.495448</v>
       </c>
       <c r="I24">
-        <v>0.008912150174410806</v>
+        <v>0.003113825034216075</v>
       </c>
       <c r="J24">
-        <v>0.008912150174410806</v>
+        <v>0.003113825034216075</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.025246</v>
+        <v>0.1212496666666667</v>
       </c>
       <c r="N24">
-        <v>0.075738</v>
+        <v>0.363749</v>
       </c>
       <c r="O24">
-        <v>0.0006087765144183893</v>
+        <v>0.003174858230734579</v>
       </c>
       <c r="P24">
-        <v>0.0006087765144183893</v>
+        <v>0.003174858230734579</v>
       </c>
       <c r="Q24">
-        <v>0.010237808412</v>
+        <v>0.02002430161688889</v>
       </c>
       <c r="R24">
-        <v>0.09214027570800001</v>
+        <v>0.180218714552</v>
       </c>
       <c r="S24">
-        <v>5.42550771915105E-06</v>
+        <v>9.885953038948291E-06</v>
       </c>
       <c r="T24">
-        <v>5.42550771915105E-06</v>
+        <v>9.885953038948291E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4055220000000001</v>
+        <v>0.1651493333333333</v>
       </c>
       <c r="H25">
-        <v>1.216566</v>
+        <v>0.495448</v>
       </c>
       <c r="I25">
-        <v>0.008912150174410806</v>
+        <v>0.003113825034216075</v>
       </c>
       <c r="J25">
-        <v>0.008912150174410806</v>
+        <v>0.003113825034216075</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.796320999999999</v>
+        <v>6.270043</v>
       </c>
       <c r="N25">
-        <v>17.388963</v>
+        <v>18.810129</v>
       </c>
       <c r="O25">
-        <v>0.1397712150372381</v>
+        <v>0.1641777513527988</v>
       </c>
       <c r="P25">
-        <v>0.1397712150372381</v>
+        <v>0.1641777513527988</v>
       </c>
       <c r="Q25">
-        <v>2.350535684562</v>
+        <v>1.035493421421333</v>
       </c>
       <c r="R25">
-        <v>21.154821161058</v>
+        <v>9.319440792791999</v>
       </c>
       <c r="S25">
-        <v>0.001245662058471731</v>
+        <v>0.0005112207922236471</v>
       </c>
       <c r="T25">
-        <v>0.001245662058471731</v>
+        <v>0.000511220792223647</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4055220000000001</v>
+        <v>0.1651493333333333</v>
       </c>
       <c r="H26">
-        <v>1.216566</v>
+        <v>0.495448</v>
       </c>
       <c r="I26">
-        <v>0.008912150174410806</v>
+        <v>0.003113825034216075</v>
       </c>
       <c r="J26">
-        <v>0.008912150174410806</v>
+        <v>0.003113825034216075</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.01070333333333333</v>
+        <v>0.250262</v>
       </c>
       <c r="N26">
-        <v>0.03211</v>
+        <v>0.750786</v>
       </c>
       <c r="O26">
-        <v>0.0002580978356700003</v>
+        <v>0.006552977772090898</v>
       </c>
       <c r="P26">
-        <v>0.0002580978356700003</v>
+        <v>0.006552977772090898</v>
       </c>
       <c r="Q26">
-        <v>0.004340437140000001</v>
+        <v>0.04133060245866667</v>
       </c>
       <c r="R26">
-        <v>0.03906393426000001</v>
+        <v>0.371975422128</v>
       </c>
       <c r="S26">
-        <v>2.300206671181444E-06</v>
+        <v>2.040482623539812E-05</v>
       </c>
       <c r="T26">
-        <v>2.300206671181444E-06</v>
+        <v>2.040482623539812E-05</v>
       </c>
     </row>
   </sheetData>
